--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>nome</t>
   </si>
@@ -31,6 +31,36 @@
   </si>
   <si>
     <t>Maria</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Andreia</t>
+  </si>
+  <si>
+    <t>Pguedes</t>
+  </si>
+  <si>
+    <t>guipsguedes@gmail.com</t>
+  </si>
+  <si>
+    <t>art.andreiaguedes@gmail.com</t>
+  </si>
+  <si>
+    <t>paulogsguedes@gmail.com</t>
+  </si>
+  <si>
+    <t>gpsguedes@gmail.com</t>
+  </si>
+  <si>
+    <t>tpsguedes@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -389,7 +419,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -422,27 +452,57 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="1"/>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
